--- a/biology/Zoologie/Bradybaenidae/Bradybaenidae.xlsx
+++ b/biology/Zoologie/Bradybaenidae/Bradybaenidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bradybaenidae, ou Bradybaeninae, est une famille ou une sous-famille d'escargots terrestres. La seule espèce présente en Europe est Fruticicola fruticum.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À la fin des années 1990, des travaux phylogéniques démontrent la proximité des Bradybaenidae avec les Camaenidae d'Asie et d'Australasie, auxquels ils seraient mêlés[1],[2]. Progressivement, on en est venu à requalifier les Bradybaenidae en une sous-famille des Camaenidae, les Bradybaeninae[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la fin des années 1990, des travaux phylogéniques démontrent la proximité des Bradybaenidae avec les Camaenidae d'Asie et d'Australasie, auxquels ils seraient mêlés,. Progressivement, on en est venu à requalifier les Bradybaenidae en une sous-famille des Camaenidae, les Bradybaeninae.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Etymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce nom signifie "ceux qui marchent lentement", et a été dérivé du nom de genre Bradybaena, créé par le malacologiste Henrik Henriksen Beck en 1837[4], de brady-, du grec ancien βραδύς, bradys, "lent", et de βαίνω, baino, grec ancien, "marcher". 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce nom signifie "ceux qui marchent lentement", et a été dérivé du nom de genre Bradybaena, créé par le malacologiste Henrik Henriksen Beck en 1837, de brady-, du grec ancien βραδύς, bradys, "lent", et de βαίνω, baino, grec ancien, "marcher". 
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon ITIS :
 Bradybaena Beck, 1837 ;
